--- a/Manutenção Village/MapaFossas.xlsx
+++ b/Manutenção Village/MapaFossas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjetosRCR\Village\Manutenção Village\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B02EA5-EAFD-4C4D-AD13-E059B22E5054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33917CAB-5B3C-48A9-9E60-648E5FCE1029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6E8CE0C-83DF-411B-9F00-E4AEA9FF7891}"/>
+    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" xr2:uid="{B6E8CE0C-83DF-411B-9F00-E4AEA9FF7891}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa" sheetId="1" r:id="rId1"/>
@@ -959,10 +959,176 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,24 +1148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,154 +1176,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5458,8 +5458,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10912390" y="170058"/>
-          <a:ext cx="1293549" cy="11149"/>
+          <a:off x="11652798" y="170058"/>
+          <a:ext cx="1294916" cy="11149"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11295,6 +11295,1883 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Elipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CDAC1B-74E7-4773-813C-09F91430FFE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1279071" y="2653393"/>
+          <a:ext cx="489858" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector reto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35D4815-45AB-4713-B1F9-F05408ACC3C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1481579" y="3115235"/>
+          <a:ext cx="9881186" cy="40021"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323024</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66264</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>74545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Semicírculo 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A923AA01-223E-4F6B-AE9A-90E84784598E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15304117">
+          <a:off x="985634" y="496958"/>
+          <a:ext cx="778564" cy="347870"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10841371"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>98608</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179537</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="Semicírculo 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DCAB78-5DD8-493F-9486-41C4434BC089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14583457">
+          <a:off x="1153672" y="1374103"/>
+          <a:ext cx="1184453" cy="329407"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10729363"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100002</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>183730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168851</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>193928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="Semicírculo 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{821AE949-0FE4-4CC6-9C9D-250802DA09E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14503438">
+          <a:off x="1839686" y="2196067"/>
+          <a:ext cx="797046" cy="317328"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10740561"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>189823</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Forma Livre: Forma 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDC70CA-6FCA-42DC-BA4D-828205B122D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2417845" y="2667000"/>
+          <a:ext cx="50372" cy="256761"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 50372 w 50372"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 256761"/>
+            <a:gd name="connsiteX1" fmla="*/ 17242 w 50372"/>
+            <a:gd name="connsiteY1" fmla="*/ 157370 h 256761"/>
+            <a:gd name="connsiteX2" fmla="*/ 8959 w 50372"/>
+            <a:gd name="connsiteY2" fmla="*/ 182217 h 256761"/>
+            <a:gd name="connsiteX3" fmla="*/ 677 w 50372"/>
+            <a:gd name="connsiteY3" fmla="*/ 215348 h 256761"/>
+            <a:gd name="connsiteX4" fmla="*/ 677 w 50372"/>
+            <a:gd name="connsiteY4" fmla="*/ 256761 h 256761"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="50372" h="256761">
+              <a:moveTo>
+                <a:pt x="50372" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2435" y="79897"/>
+                <a:pt x="34262" y="12705"/>
+                <a:pt x="17242" y="157370"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="16222" y="166041"/>
+                <a:pt x="11357" y="173822"/>
+                <a:pt x="8959" y="182217"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5832" y="193163"/>
+                <a:pt x="1934" y="204034"/>
+                <a:pt x="677" y="215348"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-847" y="229068"/>
+                <a:pt x="677" y="242957"/>
+                <a:pt x="677" y="256761"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>130746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="Elipse 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6549A7EB-B383-4129-AF3C-DD432514ACA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11173239" y="8920370"/>
+          <a:ext cx="496957" cy="321246"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>141988</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>141988</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>72768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="Elipse 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E5769F-BE92-40C9-82F2-BA0581D82A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7979702" y="6427304"/>
+          <a:ext cx="489857" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>57630</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="201" name="Conector reto 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FF99D8-C40E-4BBF-A7D4-A88C746AA59E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11386777" y="0"/>
+          <a:ext cx="32016" cy="3709147"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127552</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="206" name="Conector reto 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90648A30-3F0F-4249-806E-BF209B348233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4840356" y="0"/>
+          <a:ext cx="24847" cy="3072847"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155709</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>180556</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="Conector reto 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FD06A2-8426-4386-AEB4-D23D5EE37D1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8098731" y="44721"/>
+          <a:ext cx="24847" cy="3072847"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129483</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="Fluxograma: Conector 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46841C53-B91E-4863-BB79-316C35A4B1E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5090766" y="2368561"/>
+          <a:ext cx="176973" cy="199048"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CaixaDeTexto 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF761C02-3626-4CDD-AE10-BE910A36175B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2443370" y="7305261"/>
+          <a:ext cx="1209260" cy="670891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1" i="1"/>
+            <a:t>ETE Principal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>67739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector: Angulado 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552878CD-3393-4001-AB58-C87FC77299F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-402446" y="4906409"/>
+          <a:ext cx="4748597" cy="895705"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>213727</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>67740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector: Angulado 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E183544A-D760-42D5-9204-0B7E5C95191C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="3"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5320074" y="4997194"/>
+          <a:ext cx="1022511" cy="4440223"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76319</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160623</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector: Curvo 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A56379-AA96-4EBF-922B-75726FBE773E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="199" idx="2"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3015462" y="8066669"/>
+          <a:ext cx="8006325" cy="1115490"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="CaixaDeTexto 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35775F14-C8FE-43B8-9F02-4F7DBB7B1DDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6395358" y="6448011"/>
+          <a:ext cx="1605643" cy="260310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>Elevatória</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>193222</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>150625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>84365</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="CaixaDeTexto 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E69D10E-7381-4F37-8AEE-0DCC11FA749C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9500508" y="8791161"/>
+          <a:ext cx="1605643" cy="260310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>Elevatória</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="CaixaDeTexto 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC1F27F-6DEC-419D-9DDE-3987FEA991CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="136071" y="2367643"/>
+          <a:ext cx="1605643" cy="260310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>Elevatória</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>70758</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="Conector reto 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DA61AC-0B97-4924-84CF-C44473A10037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11337472" y="3567788"/>
+          <a:ext cx="10885" cy="2990855"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>73479</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="Conector reto 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2028EE-79D9-405B-A6D5-C2EF1FF2997E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9135836" y="3570510"/>
+          <a:ext cx="21771" cy="3001740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>225762</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>97676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Conector: Angulado 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7940445F-B241-4E78-8798-989E01720ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8308405" y="6585857"/>
+          <a:ext cx="3039952" cy="2426"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>156884</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112063</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100855</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Conector: Angulado 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC921C8-905D-4899-8E3E-EE49295C788F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6118413" y="4437529"/>
+          <a:ext cx="2801473" cy="1434356"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87200"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>217762</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="243" name="Conector: Angulado 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7D0903-F572-4898-988B-854BA4358F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11546909" y="7070911"/>
+          <a:ext cx="2606121" cy="2072311"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 982"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>153680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>141674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="Conector reto 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007ECBED-AAF5-451B-B7A2-F157EA58FDDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12696265" y="6914029"/>
+          <a:ext cx="19209" cy="2203557"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>174812</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>194021</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="Conector reto 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8933F3CD-9B7E-4C10-8FD3-DADE665FCF8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11750488" y="6887135"/>
+          <a:ext cx="19209" cy="2203557"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>208432</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>73961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="Conector: Angulado 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECA0FF8-3EDC-4150-8EB4-119D0734F334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9653868" y="7412691"/>
+          <a:ext cx="2124638" cy="1149726"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82173"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="255" name="Conector: Angulado 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7A8A7F-42B3-4BEA-8740-4E4D06034173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="199" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9978838" y="7625602"/>
+          <a:ext cx="2061883" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 84239"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -11605,8 +13482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1350731-0041-4EAA-B547-4ADFFB664D4E}">
   <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="C1:AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11654,10 +13531,10 @@
       <c r="O1" s="5">
         <v>1</v>
       </c>
-      <c r="P1" s="138" t="s">
+      <c r="P1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="139"/>
+      <c r="Q1" s="99"/>
       <c r="R1" s="3">
         <v>1</v>
       </c>
@@ -11687,10 +13564,10 @@
       <c r="AB1" s="31">
         <v>1</v>
       </c>
-      <c r="AC1" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="139"/>
+      <c r="AC1" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="99"/>
       <c r="AE1" s="25">
         <v>1</v>
       </c>
@@ -11723,10 +13600,10 @@
       <c r="AP1" s="63">
         <v>1</v>
       </c>
-      <c r="AQ1" s="127" t="s">
+      <c r="AQ1" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="127"/>
+      <c r="AR1" s="136"/>
       <c r="AS1" s="65">
         <v>1</v>
       </c>
@@ -11749,56 +13626,56 @@
       <c r="AZ1" s="48"/>
     </row>
     <row r="2" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="154"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="121"/>
       <c r="V2" s="22">
         <v>1</v>
       </c>
       <c r="W2" s="27">
         <v>1</v>
       </c>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="116"/>
       <c r="AJ2" s="31">
         <v>1</v>
       </c>
-      <c r="AK2" s="160">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="117"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
+      <c r="AK2" s="90">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="137"/>
+      <c r="AR2" s="137"/>
       <c r="AS2" s="44"/>
       <c r="AT2" s="34"/>
       <c r="AU2" s="34"/>
@@ -11846,8 +13723,8 @@
       <c r="O3" s="8">
         <v>1</v>
       </c>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="141"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="101"/>
       <c r="R3" s="7">
         <v>1</v>
       </c>
@@ -11881,8 +13758,8 @@
       <c r="AB3" s="20">
         <v>1</v>
       </c>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="141"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="101"/>
       <c r="AE3" s="25">
         <v>1</v>
       </c>
@@ -11901,7 +13778,7 @@
       <c r="AJ3" s="31">
         <v>1</v>
       </c>
-      <c r="AK3" s="160">
+      <c r="AK3" s="90">
         <v>1</v>
       </c>
       <c r="AL3" s="56">
@@ -11919,8 +13796,8 @@
       <c r="AP3" s="64">
         <v>1</v>
       </c>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
+      <c r="AQ3" s="137"/>
+      <c r="AR3" s="137"/>
       <c r="AS3" s="60">
         <v>1</v>
       </c>
@@ -11943,48 +13820,48 @@
       <c r="AZ3" s="35"/>
     </row>
     <row r="4" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="155"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="141"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="111"/>
+      <c r="AJ4" s="113"/>
       <c r="AK4" s="44"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
       <c r="AN4" s="34"/>
       <c r="AO4" s="34"/>
       <c r="AP4" s="35"/>
-      <c r="AQ4" s="128"/>
-      <c r="AR4" s="128"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
       <c r="AS4" s="44"/>
       <c r="AT4" s="34"/>
       <c r="AU4" s="34"/>
@@ -12032,8 +13909,8 @@
       <c r="O5" s="8">
         <v>1</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
       <c r="R5" s="15">
         <v>1</v>
       </c>
@@ -12067,8 +13944,8 @@
       <c r="AB5" s="21">
         <v>1</v>
       </c>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="141"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="101"/>
       <c r="AE5" s="25">
         <v>1</v>
       </c>
@@ -12101,8 +13978,8 @@
       <c r="AP5" s="64">
         <v>1</v>
       </c>
-      <c r="AQ5" s="128"/>
-      <c r="AR5" s="128"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
       <c r="AS5" s="60">
         <v>1</v>
       </c>
@@ -12128,55 +14005,55 @@
     </row>
     <row r="6" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="98" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="100"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="132"/>
       <c r="V6" s="25">
         <v>1</v>
       </c>
-      <c r="W6" s="133"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="140"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="147"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="148"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="114"/>
+      <c r="AF6" s="115"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="115"/>
+      <c r="AI6" s="116"/>
       <c r="AJ6" s="31">
         <v>1</v>
       </c>
-      <c r="AK6" s="160">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="117"/>
-      <c r="AN6" s="117"/>
-      <c r="AO6" s="117"/>
-      <c r="AP6" s="136"/>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="128"/>
+      <c r="AK6" s="90">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="137"/>
+      <c r="AR6" s="137"/>
       <c r="AS6" s="44"/>
       <c r="AT6" s="34"/>
       <c r="AU6" s="34"/>
@@ -12221,12 +14098,12 @@
       <c r="O7" s="8">
         <v>1</v>
       </c>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="103"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="135"/>
       <c r="V7" s="42"/>
       <c r="W7" s="21">
         <v>1</v>
@@ -12246,8 +14123,8 @@
       <c r="AB7" s="20">
         <v>1</v>
       </c>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="141"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="101"/>
       <c r="AE7" s="25">
         <v>1</v>
       </c>
@@ -12266,7 +14143,7 @@
       <c r="AJ7" s="31">
         <v>1</v>
       </c>
-      <c r="AK7" s="160">
+      <c r="AK7" s="90">
         <v>1</v>
       </c>
       <c r="AL7" s="56">
@@ -12284,8 +14161,8 @@
       <c r="AP7" s="64">
         <v>1</v>
       </c>
-      <c r="AQ7" s="128"/>
-      <c r="AR7" s="128"/>
+      <c r="AQ7" s="137"/>
+      <c r="AR7" s="137"/>
       <c r="AS7" s="60">
         <v>1</v>
       </c>
@@ -12313,48 +14190,48 @@
     </row>
     <row r="8" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="103"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="135"/>
       <c r="V8" s="27">
         <v>1</v>
       </c>
-      <c r="W8" s="133"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="91"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="113"/>
       <c r="AK8" s="44"/>
       <c r="AL8" s="34"/>
       <c r="AM8" s="34"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="34"/>
       <c r="AP8" s="35"/>
-      <c r="AQ8" s="128"/>
-      <c r="AR8" s="128"/>
+      <c r="AQ8" s="137"/>
+      <c r="AR8" s="137"/>
       <c r="AS8" s="44"/>
       <c r="AT8" s="34"/>
       <c r="AU8" s="34"/>
@@ -12396,12 +14273,12 @@
       <c r="O9" s="8">
         <v>1</v>
       </c>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="103"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="135"/>
       <c r="V9" s="27">
         <v>1</v>
       </c>
@@ -12423,8 +14300,8 @@
       <c r="AB9" s="20">
         <v>1</v>
       </c>
-      <c r="AC9" s="140"/>
-      <c r="AD9" s="141"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="101"/>
       <c r="AE9" s="25">
         <v>1</v>
       </c>
@@ -12457,8 +14334,8 @@
       <c r="AP9" s="64">
         <v>1</v>
       </c>
-      <c r="AQ9" s="128"/>
-      <c r="AR9" s="128"/>
+      <c r="AQ9" s="137"/>
+      <c r="AR9" s="137"/>
       <c r="AS9" s="60">
         <v>1</v>
       </c>
@@ -12484,49 +14361,49 @@
     </row>
     <row r="10" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="140"/>
-      <c r="AD10" s="141"/>
-      <c r="AE10" s="146"/>
-      <c r="AF10" s="147"/>
-      <c r="AG10" s="147"/>
-      <c r="AH10" s="147"/>
-      <c r="AI10" s="148"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="116"/>
       <c r="AJ10" s="31">
         <v>1</v>
       </c>
-      <c r="AK10" s="160">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="133"/>
-      <c r="AM10" s="117"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="136"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="128"/>
+      <c r="AK10" s="90">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="137"/>
+      <c r="AR10" s="137"/>
       <c r="AS10" s="13"/>
       <c r="AZ10" s="64">
         <v>1</v>
@@ -12561,12 +14438,12 @@
       <c r="O11" s="8">
         <v>1</v>
       </c>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="103"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="135"/>
       <c r="V11" s="27">
         <v>1</v>
       </c>
@@ -12588,8 +14465,8 @@
       <c r="AB11" s="20">
         <v>1</v>
       </c>
-      <c r="AC11" s="140"/>
-      <c r="AD11" s="141"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="101"/>
       <c r="AE11" s="25">
         <v>1</v>
       </c>
@@ -12608,7 +14485,7 @@
       <c r="AJ11" s="31">
         <v>1</v>
       </c>
-      <c r="AK11" s="160">
+      <c r="AK11" s="90">
         <v>1</v>
       </c>
       <c r="AL11" s="56">
@@ -12626,8 +14503,8 @@
       <c r="AP11" s="64">
         <v>1</v>
       </c>
-      <c r="AQ11" s="128"/>
-      <c r="AR11" s="128"/>
+      <c r="AQ11" s="137"/>
+      <c r="AR11" s="137"/>
       <c r="AS11" s="60">
         <v>1</v>
       </c>
@@ -12655,46 +14532,46 @@
     </row>
     <row r="12" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="103"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="135"/>
       <c r="V12" s="27">
         <v>1</v>
       </c>
-      <c r="W12" s="133"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="144"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="91"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="113"/>
       <c r="AK12" s="44"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
       <c r="AN12" s="34"/>
       <c r="AO12" s="34"/>
       <c r="AP12" s="35"/>
-      <c r="AQ12" s="128"/>
-      <c r="AR12" s="128"/>
+      <c r="AQ12" s="137"/>
+      <c r="AR12" s="137"/>
       <c r="AS12" s="44"/>
       <c r="AT12" s="34"/>
       <c r="AU12" s="34"/>
@@ -12730,12 +14607,12 @@
       <c r="O13" s="8">
         <v>1</v>
       </c>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="103"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="135"/>
       <c r="V13" s="44"/>
       <c r="W13" s="21">
         <v>1</v>
@@ -12755,8 +14632,8 @@
       <c r="AB13" s="20">
         <v>1</v>
       </c>
-      <c r="AC13" s="140"/>
-      <c r="AD13" s="141"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="101"/>
       <c r="AE13" s="25">
         <v>1</v>
       </c>
@@ -12789,8 +14666,8 @@
       <c r="AP13" s="64">
         <v>1</v>
       </c>
-      <c r="AQ13" s="128"/>
-      <c r="AR13" s="128"/>
+      <c r="AQ13" s="137"/>
+      <c r="AR13" s="137"/>
       <c r="AS13" s="60">
         <v>1</v>
       </c>
@@ -12816,47 +14693,47 @@
     </row>
     <row r="14" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="103"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="135"/>
       <c r="V14" s="44"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="140"/>
-      <c r="AD14" s="141"/>
-      <c r="AE14" s="144"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="145"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="112"/>
       <c r="AJ14" s="31">
         <v>1</v>
       </c>
-      <c r="AK14" s="160">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="133"/>
-      <c r="AM14" s="117"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="136"/>
-      <c r="AQ14" s="128"/>
-      <c r="AR14" s="128"/>
+      <c r="AK14" s="90">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="137"/>
+      <c r="AR14" s="137"/>
       <c r="AS14" s="44"/>
       <c r="AT14" s="34"/>
       <c r="AU14" s="34"/>
@@ -12894,14 +14771,14 @@
         <v>1</v>
       </c>
       <c r="O15" s="19"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="150"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="118"/>
       <c r="X15" s="29">
         <v>1</v>
       </c>
@@ -12915,8 +14792,8 @@
         <v>1</v>
       </c>
       <c r="AB15" s="41"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="143"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="103"/>
       <c r="AE15" s="45"/>
       <c r="AF15" s="46">
         <v>1</v>
@@ -12933,7 +14810,7 @@
       <c r="AJ15" s="47">
         <v>1</v>
       </c>
-      <c r="AK15" s="161">
+      <c r="AK15" s="91">
         <v>1</v>
       </c>
       <c r="AL15" s="62">
@@ -12949,8 +14826,8 @@
         <v>1</v>
       </c>
       <c r="AP15" s="41"/>
-      <c r="AQ15" s="129"/>
-      <c r="AR15" s="129"/>
+      <c r="AQ15" s="138"/>
+      <c r="AR15" s="138"/>
       <c r="AS15" s="61">
         <v>1</v>
       </c>
@@ -12977,82 +14854,82 @@
       </c>
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="137"/>
-      <c r="AH16" s="137"/>
-      <c r="AI16" s="137"/>
-      <c r="AJ16" s="137"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="109"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="109"/>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="109"/>
       <c r="AK16" s="55"/>
       <c r="AL16" s="55"/>
       <c r="AT16" s="13"/>
       <c r="AZ16" s="14"/>
     </row>
     <row r="17" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-      <c r="AH17" s="137"/>
-      <c r="AI17" s="137"/>
-      <c r="AJ17" s="137"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="109"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="109"/>
+      <c r="AH17" s="109"/>
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="109"/>
       <c r="AK17" s="55"/>
       <c r="AL17" s="55"/>
       <c r="AT17" s="60">
@@ -13076,40 +14953,40 @@
       <c r="AZ17" s="14"/>
     </row>
     <row r="18" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="137"/>
-      <c r="AH18" s="137"/>
-      <c r="AI18" s="137"/>
-      <c r="AJ18" s="137"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
+      <c r="AE18" s="109"/>
+      <c r="AF18" s="109"/>
+      <c r="AG18" s="109"/>
+      <c r="AH18" s="109"/>
+      <c r="AI18" s="109"/>
+      <c r="AJ18" s="109"/>
       <c r="AK18" s="55"/>
       <c r="AL18" s="55"/>
       <c r="AT18" s="13"/>
@@ -13118,10 +14995,10 @@
       </c>
     </row>
     <row r="19" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X19" s="121" t="s">
+      <c r="X19" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="Y19" s="122"/>
+      <c r="Y19" s="125"/>
       <c r="Z19" s="81"/>
       <c r="AA19" s="50">
         <v>1</v>
@@ -13162,10 +15039,10 @@
         <v>1</v>
       </c>
       <c r="AP19" s="53"/>
-      <c r="AQ19" s="130" t="s">
+      <c r="AQ19" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="AR19" s="122"/>
+      <c r="AR19" s="125"/>
       <c r="AS19" s="53"/>
       <c r="AT19" s="68">
         <v>1</v>
@@ -13190,42 +15067,42 @@
       </c>
     </row>
     <row r="20" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X20" s="123"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="133"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="118"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="97"/>
       <c r="AH20" s="51">
         <v>1</v>
       </c>
       <c r="AJ20" s="70">
         <v>1</v>
       </c>
-      <c r="AK20" s="133"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="118"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="97"/>
       <c r="AP20" s="34"/>
-      <c r="AQ20" s="131"/>
-      <c r="AR20" s="124"/>
-      <c r="AS20" s="115"/>
-      <c r="AT20" s="115"/>
-      <c r="AU20" s="115"/>
-      <c r="AV20" s="115"/>
-      <c r="AW20" s="115"/>
-      <c r="AX20" s="115"/>
-      <c r="AY20" s="115"/>
-      <c r="AZ20" s="116"/>
+      <c r="AQ20" s="140"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="146"/>
+      <c r="AT20" s="146"/>
+      <c r="AU20" s="146"/>
+      <c r="AV20" s="146"/>
+      <c r="AW20" s="146"/>
+      <c r="AX20" s="146"/>
+      <c r="AY20" s="146"/>
+      <c r="AZ20" s="147"/>
     </row>
     <row r="21" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X21" s="123"/>
-      <c r="Y21" s="124"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="127"/>
       <c r="Z21" s="49">
         <v>1</v>
       </c>
@@ -13274,8 +15151,8 @@
       <c r="AP21" s="85">
         <v>1</v>
       </c>
-      <c r="AQ21" s="131"/>
-      <c r="AR21" s="124"/>
+      <c r="AQ21" s="140"/>
+      <c r="AR21" s="127"/>
       <c r="AS21" s="87">
         <v>1</v>
       </c>
@@ -13300,8 +15177,8 @@
       <c r="AZ21" s="35"/>
     </row>
     <row r="22" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X22" s="123"/>
-      <c r="Y22" s="124"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="127"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="38"/>
       <c r="AB22" s="38"/>
@@ -13311,29 +15188,29 @@
       <c r="AF22" s="38"/>
       <c r="AG22" s="38"/>
       <c r="AH22" s="39"/>
-      <c r="AJ22" s="134"/>
-      <c r="AK22" s="135"/>
-      <c r="AL22" s="135"/>
-      <c r="AM22" s="135"/>
-      <c r="AN22" s="135"/>
-      <c r="AO22" s="135"/>
-      <c r="AP22" s="135"/>
-      <c r="AQ22" s="131"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="117"/>
-      <c r="AT22" s="117"/>
-      <c r="AU22" s="117"/>
-      <c r="AV22" s="117"/>
-      <c r="AW22" s="117"/>
-      <c r="AX22" s="117"/>
-      <c r="AY22" s="118"/>
+      <c r="AJ22" s="142"/>
+      <c r="AK22" s="143"/>
+      <c r="AL22" s="143"/>
+      <c r="AM22" s="143"/>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="143"/>
+      <c r="AP22" s="143"/>
+      <c r="AQ22" s="140"/>
+      <c r="AR22" s="127"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
+      <c r="AU22" s="94"/>
+      <c r="AV22" s="94"/>
+      <c r="AW22" s="94"/>
+      <c r="AX22" s="94"/>
+      <c r="AY22" s="97"/>
       <c r="AZ22" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X23" s="123"/>
-      <c r="Y23" s="124"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="127"/>
       <c r="Z23" s="49">
         <v>1</v>
       </c>
@@ -13378,8 +15255,8 @@
       <c r="AP23" s="85">
         <v>1</v>
       </c>
-      <c r="AQ23" s="131"/>
-      <c r="AR23" s="124"/>
+      <c r="AQ23" s="140"/>
+      <c r="AR23" s="127"/>
       <c r="AS23" s="87">
         <v>1</v>
       </c>
@@ -13406,8 +15283,8 @@
       </c>
     </row>
     <row r="24" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X24" s="123"/>
-      <c r="Y24" s="124"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="127"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="38"/>
       <c r="AB24" s="38"/>
@@ -13422,26 +15299,26 @@
       <c r="AJ24" s="70">
         <v>1</v>
       </c>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="114"/>
-      <c r="AM24" s="114"/>
-      <c r="AN24" s="114"/>
-      <c r="AO24" s="114"/>
-      <c r="AP24" s="114"/>
-      <c r="AQ24" s="131"/>
-      <c r="AR24" s="124"/>
-      <c r="AS24" s="90"/>
-      <c r="AT24" s="90"/>
-      <c r="AU24" s="90"/>
-      <c r="AV24" s="90"/>
-      <c r="AW24" s="90"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="90"/>
-      <c r="AZ24" s="91"/>
+      <c r="AK24" s="144"/>
+      <c r="AL24" s="145"/>
+      <c r="AM24" s="145"/>
+      <c r="AN24" s="145"/>
+      <c r="AO24" s="145"/>
+      <c r="AP24" s="145"/>
+      <c r="AQ24" s="140"/>
+      <c r="AR24" s="127"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
+      <c r="AX24" s="111"/>
+      <c r="AY24" s="111"/>
+      <c r="AZ24" s="113"/>
     </row>
     <row r="25" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X25" s="123"/>
-      <c r="Y25" s="124"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="127"/>
       <c r="Z25" s="49">
         <v>1</v>
       </c>
@@ -13490,8 +15367,8 @@
       <c r="AP25" s="85">
         <v>1</v>
       </c>
-      <c r="AQ25" s="131"/>
-      <c r="AR25" s="124"/>
+      <c r="AQ25" s="140"/>
+      <c r="AR25" s="127"/>
       <c r="AS25" s="87">
         <v>1</v>
       </c>
@@ -13516,8 +15393,8 @@
       <c r="AZ25" s="35"/>
     </row>
     <row r="26" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X26" s="123"/>
-      <c r="Y26" s="124"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="127"/>
       <c r="Z26" s="37"/>
       <c r="AA26" s="38"/>
       <c r="AB26" s="38"/>
@@ -13527,29 +15404,29 @@
       <c r="AF26" s="38"/>
       <c r="AG26" s="40"/>
       <c r="AH26" s="83"/>
-      <c r="AJ26" s="134"/>
-      <c r="AK26" s="135"/>
-      <c r="AL26" s="135"/>
-      <c r="AM26" s="135"/>
-      <c r="AN26" s="135"/>
-      <c r="AO26" s="135"/>
-      <c r="AP26" s="135"/>
-      <c r="AQ26" s="131"/>
-      <c r="AR26" s="124"/>
-      <c r="AS26" s="119"/>
-      <c r="AT26" s="119"/>
-      <c r="AU26" s="119"/>
-      <c r="AV26" s="119"/>
-      <c r="AW26" s="119"/>
-      <c r="AX26" s="119"/>
-      <c r="AY26" s="120"/>
+      <c r="AJ26" s="142"/>
+      <c r="AK26" s="143"/>
+      <c r="AL26" s="143"/>
+      <c r="AM26" s="143"/>
+      <c r="AN26" s="143"/>
+      <c r="AO26" s="143"/>
+      <c r="AP26" s="143"/>
+      <c r="AQ26" s="140"/>
+      <c r="AR26" s="127"/>
+      <c r="AS26" s="122"/>
+      <c r="AT26" s="122"/>
+      <c r="AU26" s="122"/>
+      <c r="AV26" s="122"/>
+      <c r="AW26" s="122"/>
+      <c r="AX26" s="122"/>
+      <c r="AY26" s="123"/>
       <c r="AZ26" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X27" s="123"/>
-      <c r="Y27" s="124"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="127"/>
       <c r="Z27" s="49">
         <v>1</v>
       </c>
@@ -13594,8 +15471,8 @@
       <c r="AP27" s="85">
         <v>1</v>
       </c>
-      <c r="AQ27" s="131"/>
-      <c r="AR27" s="124"/>
+      <c r="AQ27" s="140"/>
+      <c r="AR27" s="127"/>
       <c r="AS27" s="87">
         <v>1</v>
       </c>
@@ -13622,8 +15499,8 @@
       </c>
     </row>
     <row r="28" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X28" s="123"/>
-      <c r="Y28" s="124"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="127"/>
       <c r="Z28" s="37"/>
       <c r="AA28" s="38"/>
       <c r="AB28" s="38"/>
@@ -13638,26 +15515,26 @@
       <c r="AJ28" s="70">
         <v>1</v>
       </c>
-      <c r="AK28" s="113"/>
-      <c r="AL28" s="114"/>
-      <c r="AM28" s="114"/>
-      <c r="AN28" s="114"/>
-      <c r="AO28" s="114"/>
-      <c r="AP28" s="114"/>
-      <c r="AQ28" s="131"/>
-      <c r="AR28" s="124"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="90"/>
-      <c r="AU28" s="90"/>
-      <c r="AV28" s="90"/>
-      <c r="AW28" s="90"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="90"/>
-      <c r="AZ28" s="91"/>
+      <c r="AK28" s="144"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="145"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="140"/>
+      <c r="AR28" s="127"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
+      <c r="AX28" s="111"/>
+      <c r="AY28" s="111"/>
+      <c r="AZ28" s="113"/>
     </row>
     <row r="29" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X29" s="123"/>
-      <c r="Y29" s="124"/>
+      <c r="X29" s="126"/>
+      <c r="Y29" s="127"/>
       <c r="Z29" s="49">
         <v>1</v>
       </c>
@@ -13706,8 +15583,8 @@
       <c r="AP29" s="85">
         <v>1</v>
       </c>
-      <c r="AQ29" s="131"/>
-      <c r="AR29" s="124"/>
+      <c r="AQ29" s="140"/>
+      <c r="AR29" s="127"/>
       <c r="AS29" s="87">
         <v>1</v>
       </c>
@@ -13732,8 +15609,8 @@
       <c r="AZ29" s="35"/>
     </row>
     <row r="30" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X30" s="123"/>
-      <c r="Y30" s="124"/>
+      <c r="X30" s="126"/>
+      <c r="Y30" s="127"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="38"/>
       <c r="AB30" s="38"/>
@@ -13743,29 +15620,29 @@
       <c r="AF30" s="38"/>
       <c r="AG30" s="40"/>
       <c r="AH30" s="83"/>
-      <c r="AJ30" s="134"/>
-      <c r="AK30" s="135"/>
-      <c r="AL30" s="135"/>
-      <c r="AM30" s="135"/>
-      <c r="AN30" s="135"/>
-      <c r="AO30" s="135"/>
-      <c r="AP30" s="135"/>
-      <c r="AQ30" s="131"/>
-      <c r="AR30" s="124"/>
-      <c r="AS30" s="119"/>
-      <c r="AT30" s="119"/>
-      <c r="AU30" s="119"/>
-      <c r="AV30" s="119"/>
-      <c r="AW30" s="119"/>
-      <c r="AX30" s="119"/>
-      <c r="AY30" s="120"/>
+      <c r="AJ30" s="142"/>
+      <c r="AK30" s="143"/>
+      <c r="AL30" s="143"/>
+      <c r="AM30" s="143"/>
+      <c r="AN30" s="143"/>
+      <c r="AO30" s="143"/>
+      <c r="AP30" s="143"/>
+      <c r="AQ30" s="140"/>
+      <c r="AR30" s="127"/>
+      <c r="AS30" s="122"/>
+      <c r="AT30" s="122"/>
+      <c r="AU30" s="122"/>
+      <c r="AV30" s="122"/>
+      <c r="AW30" s="122"/>
+      <c r="AX30" s="122"/>
+      <c r="AY30" s="123"/>
       <c r="AZ30" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="X31" s="123"/>
-      <c r="Y31" s="124"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="127"/>
       <c r="Z31" s="54"/>
       <c r="AA31" s="54"/>
       <c r="AB31" s="54"/>
@@ -13802,8 +15679,8 @@
       <c r="AP31" s="85">
         <v>1</v>
       </c>
-      <c r="AQ31" s="131"/>
-      <c r="AR31" s="124"/>
+      <c r="AQ31" s="140"/>
+      <c r="AR31" s="127"/>
       <c r="AS31" s="87">
         <v>1</v>
       </c>
@@ -13830,8 +15707,8 @@
       </c>
     </row>
     <row r="32" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X32" s="125"/>
-      <c r="Y32" s="126"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="129"/>
       <c r="Z32" s="28"/>
       <c r="AA32" s="28"/>
       <c r="AB32" s="28"/>
@@ -13846,28 +15723,28 @@
       <c r="AJ32" s="70">
         <v>1</v>
       </c>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="114"/>
-      <c r="AM32" s="114"/>
-      <c r="AN32" s="114"/>
-      <c r="AO32" s="114"/>
-      <c r="AP32" s="114"/>
-      <c r="AQ32" s="131"/>
-      <c r="AR32" s="124"/>
-      <c r="AS32" s="90"/>
-      <c r="AT32" s="90"/>
-      <c r="AU32" s="90"/>
-      <c r="AV32" s="90"/>
-      <c r="AW32" s="90"/>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="90"/>
-      <c r="AZ32" s="91"/>
+      <c r="AK32" s="144"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="145"/>
+      <c r="AN32" s="145"/>
+      <c r="AO32" s="145"/>
+      <c r="AP32" s="145"/>
+      <c r="AQ32" s="140"/>
+      <c r="AR32" s="127"/>
+      <c r="AS32" s="111"/>
+      <c r="AT32" s="111"/>
+      <c r="AU32" s="111"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
+      <c r="AX32" s="111"/>
+      <c r="AY32" s="111"/>
+      <c r="AZ32" s="113"/>
     </row>
     <row r="33" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="162" t="s">
+      <c r="A33" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="162">
+      <c r="B33" s="92">
         <v>5</v>
       </c>
       <c r="AJ33" s="72">
@@ -13891,8 +15768,8 @@
       <c r="AP33" s="86">
         <v>1</v>
       </c>
-      <c r="AQ33" s="132"/>
-      <c r="AR33" s="126"/>
+      <c r="AQ33" s="141"/>
+      <c r="AR33" s="129"/>
       <c r="AS33" s="88">
         <v>1</v>
       </c>
@@ -13905,96 +15782,96 @@
       <c r="AV33" s="86">
         <v>1</v>
       </c>
-      <c r="AW33" s="98" t="s">
+      <c r="AW33" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AX33" s="99"/>
-      <c r="AY33" s="99"/>
-      <c r="AZ33" s="99"/>
-      <c r="BA33" s="99"/>
-      <c r="BB33" s="99"/>
-      <c r="BC33" s="99"/>
-      <c r="BD33" s="100"/>
+      <c r="AX33" s="131"/>
+      <c r="AY33" s="131"/>
+      <c r="AZ33" s="131"/>
+      <c r="BA33" s="131"/>
+      <c r="BB33" s="131"/>
+      <c r="BC33" s="131"/>
+      <c r="BD33" s="132"/>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="162">
+      <c r="B34" s="92">
         <v>4</v>
       </c>
-      <c r="AJ34" s="107" t="s">
+      <c r="AJ34" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AK34" s="108"/>
-      <c r="AL34" s="108"/>
-      <c r="AM34" s="108"/>
-      <c r="AN34" s="108"/>
-      <c r="AO34" s="108"/>
-      <c r="AP34" s="108"/>
-      <c r="AQ34" s="108"/>
-      <c r="AR34" s="108"/>
-      <c r="AS34" s="108"/>
-      <c r="AT34" s="108"/>
-      <c r="AU34" s="108"/>
-      <c r="AV34" s="109"/>
-      <c r="AW34" s="101"/>
-      <c r="AX34" s="102"/>
-      <c r="AY34" s="102"/>
-      <c r="AZ34" s="102"/>
-      <c r="BA34" s="102"/>
-      <c r="BB34" s="102"/>
-      <c r="BC34" s="102"/>
-      <c r="BD34" s="103"/>
+      <c r="AK34" s="158"/>
+      <c r="AL34" s="158"/>
+      <c r="AM34" s="158"/>
+      <c r="AN34" s="158"/>
+      <c r="AO34" s="158"/>
+      <c r="AP34" s="158"/>
+      <c r="AQ34" s="158"/>
+      <c r="AR34" s="158"/>
+      <c r="AS34" s="158"/>
+      <c r="AT34" s="158"/>
+      <c r="AU34" s="158"/>
+      <c r="AV34" s="159"/>
+      <c r="AW34" s="133"/>
+      <c r="AX34" s="134"/>
+      <c r="AY34" s="134"/>
+      <c r="AZ34" s="134"/>
+      <c r="BA34" s="134"/>
+      <c r="BB34" s="134"/>
+      <c r="BC34" s="134"/>
+      <c r="BD34" s="135"/>
     </row>
     <row r="35" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
+      <c r="A35" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="162">
+      <c r="B35" s="92">
         <v>7</v>
       </c>
-      <c r="AJ35" s="110"/>
-      <c r="AK35" s="111"/>
-      <c r="AL35" s="111"/>
-      <c r="AM35" s="111"/>
-      <c r="AN35" s="111"/>
-      <c r="AO35" s="111"/>
-      <c r="AP35" s="111"/>
-      <c r="AQ35" s="111"/>
-      <c r="AR35" s="111"/>
-      <c r="AS35" s="111"/>
-      <c r="AT35" s="111"/>
-      <c r="AU35" s="111"/>
-      <c r="AV35" s="112"/>
-      <c r="AW35" s="104"/>
-      <c r="AX35" s="105"/>
-      <c r="AY35" s="105"/>
-      <c r="AZ35" s="105"/>
-      <c r="BA35" s="105"/>
-      <c r="BB35" s="105"/>
-      <c r="BC35" s="105"/>
-      <c r="BD35" s="106"/>
+      <c r="AJ35" s="160"/>
+      <c r="AK35" s="161"/>
+      <c r="AL35" s="161"/>
+      <c r="AM35" s="161"/>
+      <c r="AN35" s="161"/>
+      <c r="AO35" s="161"/>
+      <c r="AP35" s="161"/>
+      <c r="AQ35" s="161"/>
+      <c r="AR35" s="161"/>
+      <c r="AS35" s="161"/>
+      <c r="AT35" s="161"/>
+      <c r="AU35" s="161"/>
+      <c r="AV35" s="162"/>
+      <c r="AW35" s="154"/>
+      <c r="AX35" s="155"/>
+      <c r="AY35" s="155"/>
+      <c r="AZ35" s="155"/>
+      <c r="BA35" s="155"/>
+      <c r="BB35" s="155"/>
+      <c r="BC35" s="155"/>
+      <c r="BD35" s="156"/>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A36" s="162" t="s">
+      <c r="A36" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="162">
+      <c r="B36" s="92">
         <v>9</v>
       </c>
       <c r="AJ36" s="74">
         <v>1</v>
       </c>
-      <c r="AK36" s="92"/>
+      <c r="AK36" s="148"/>
       <c r="AL36" s="75">
         <v>1</v>
       </c>
-      <c r="AM36" s="95"/>
+      <c r="AM36" s="151"/>
       <c r="AN36" s="74">
         <v>1</v>
       </c>
-      <c r="AO36" s="92"/>
+      <c r="AO36" s="148"/>
       <c r="AP36" s="75">
         <v>1</v>
       </c>
@@ -14019,24 +15896,24 @@
       <c r="BD36" s="12"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A37" s="162" t="s">
+      <c r="A37" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="162">
+      <c r="B37" s="92">
         <v>6</v>
       </c>
       <c r="AJ37" s="76">
         <v>1</v>
       </c>
-      <c r="AK37" s="93"/>
+      <c r="AK37" s="149"/>
       <c r="AL37" s="58">
         <v>1</v>
       </c>
-      <c r="AM37" s="96"/>
+      <c r="AM37" s="152"/>
       <c r="AN37" s="76">
         <v>1</v>
       </c>
-      <c r="AO37" s="93"/>
+      <c r="AO37" s="149"/>
       <c r="AP37" s="58">
         <v>1</v>
       </c>
@@ -14068,24 +15945,24 @@
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="162">
+      <c r="B38" s="92">
         <v>6</v>
       </c>
       <c r="AJ38" s="76">
         <v>1</v>
       </c>
-      <c r="AK38" s="93"/>
+      <c r="AK38" s="149"/>
       <c r="AL38" s="58">
         <v>1</v>
       </c>
-      <c r="AM38" s="96"/>
+      <c r="AM38" s="152"/>
       <c r="AN38" s="76">
         <v>1</v>
       </c>
-      <c r="AO38" s="93"/>
+      <c r="AO38" s="149"/>
       <c r="AP38" s="58">
         <v>1</v>
       </c>
@@ -14119,23 +15996,23 @@
       </c>
     </row>
     <row r="39" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="162">
+      <c r="B39" s="92">
         <f>SUM(B33:B38)</f>
         <v>37</v>
       </c>
       <c r="AJ39" s="79"/>
-      <c r="AK39" s="94"/>
+      <c r="AK39" s="150"/>
       <c r="AL39" s="78">
         <v>1</v>
       </c>
-      <c r="AM39" s="97"/>
+      <c r="AM39" s="153"/>
       <c r="AN39" s="76">
         <v>1</v>
       </c>
-      <c r="AO39" s="93"/>
+      <c r="AO39" s="149"/>
       <c r="AP39" s="58">
         <v>1</v>
       </c>
@@ -14172,7 +16049,7 @@
       <c r="AN40" s="76">
         <v>1</v>
       </c>
-      <c r="AO40" s="93"/>
+      <c r="AO40" s="149"/>
       <c r="AP40" s="58">
         <v>1</v>
       </c>
@@ -14209,7 +16086,7 @@
       <c r="AN41" s="76">
         <v>1</v>
       </c>
-      <c r="AO41" s="93"/>
+      <c r="AO41" s="149"/>
       <c r="AP41" s="58">
         <v>1</v>
       </c>
@@ -14246,7 +16123,7 @@
       <c r="AN42" s="76">
         <v>1</v>
       </c>
-      <c r="AO42" s="93"/>
+      <c r="AO42" s="149"/>
       <c r="AP42" s="58">
         <v>1</v>
       </c>
@@ -14283,7 +16160,7 @@
       <c r="AN43" s="76">
         <v>1</v>
       </c>
-      <c r="AO43" s="93"/>
+      <c r="AO43" s="149"/>
       <c r="AP43" s="58">
         <v>1</v>
       </c>
@@ -14344,17 +16221,34 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W6:AB6"/>
-    <mergeCell ref="P1:Q15"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="E8:O8"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="AS32:AZ32"/>
+    <mergeCell ref="AK36:AK39"/>
+    <mergeCell ref="AM36:AM39"/>
+    <mergeCell ref="AO36:AO43"/>
+    <mergeCell ref="AW33:BD35"/>
+    <mergeCell ref="AJ34:AV35"/>
+    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="AS20:AZ20"/>
+    <mergeCell ref="AS22:AY22"/>
+    <mergeCell ref="AS24:AZ24"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="AS28:AZ28"/>
+    <mergeCell ref="AS30:AY30"/>
+    <mergeCell ref="X19:Y32"/>
+    <mergeCell ref="R6:U15"/>
+    <mergeCell ref="AQ1:AR15"/>
+    <mergeCell ref="AQ19:AR33"/>
+    <mergeCell ref="Z20:AG20"/>
+    <mergeCell ref="AK20:AO20"/>
+    <mergeCell ref="AJ22:AP22"/>
+    <mergeCell ref="AK24:AP24"/>
+    <mergeCell ref="AJ26:AP26"/>
+    <mergeCell ref="AK28:AP28"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AL14:AP14"/>
+    <mergeCell ref="AJ30:AP30"/>
     <mergeCell ref="C16:AJ18"/>
     <mergeCell ref="AC1:AD15"/>
     <mergeCell ref="AE14:AI14"/>
@@ -14371,34 +16265,17 @@
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="R4:V4"/>
-    <mergeCell ref="AS30:AY30"/>
-    <mergeCell ref="X19:Y32"/>
-    <mergeCell ref="R6:U15"/>
-    <mergeCell ref="AQ1:AR15"/>
-    <mergeCell ref="AQ19:AR33"/>
-    <mergeCell ref="Z20:AG20"/>
-    <mergeCell ref="AK20:AO20"/>
-    <mergeCell ref="AJ22:AP22"/>
-    <mergeCell ref="AK24:AP24"/>
-    <mergeCell ref="AJ26:AP26"/>
-    <mergeCell ref="AK28:AP28"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AL14:AP14"/>
-    <mergeCell ref="AJ30:AP30"/>
-    <mergeCell ref="AS20:AZ20"/>
-    <mergeCell ref="AS22:AY22"/>
-    <mergeCell ref="AS24:AZ24"/>
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="AS28:AZ28"/>
-    <mergeCell ref="AS32:AZ32"/>
-    <mergeCell ref="AK36:AK39"/>
-    <mergeCell ref="AM36:AM39"/>
-    <mergeCell ref="AO36:AO43"/>
-    <mergeCell ref="AW33:BD35"/>
-    <mergeCell ref="AJ34:AV35"/>
-    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="W6:AB6"/>
+    <mergeCell ref="P1:Q15"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="E8:O8"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="H14:O14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Manutenção Village/MapaFossas.xlsx
+++ b/Manutenção Village/MapaFossas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjetosRCR\Village\Manutenção Village\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33917CAB-5B3C-48A9-9E60-648E5FCE1029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF7A1D-4E63-444D-8550-490983E40E09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" xr2:uid="{B6E8CE0C-83DF-411B-9F00-E4AEA9FF7891}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6E8CE0C-83DF-411B-9F00-E4AEA9FF7891}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa" sheetId="1" r:id="rId1"/>
@@ -11400,9 +11400,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
@@ -11996,11 +11994,9 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
@@ -12263,9 +12259,7 @@
         </a:prstGeom>
         <a:ln w="76200">
           <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -13162,6 +13156,68 @@
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>92761</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>117608</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="Conector reto 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B8D992-1D28-434D-BB65-040DBEBE2E0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9775131" y="6621"/>
+          <a:ext cx="24847" cy="3072847"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -13480,10 +13536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1350731-0041-4EAA-B547-4ADFFB664D4E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="C1:AR15"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16278,7 +16337,7 @@
     <mergeCell ref="H14:O14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Manutenção Village/MapaFossas.xlsx
+++ b/Manutenção Village/MapaFossas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjetosRCR\Village\Manutenção Village\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF7A1D-4E63-444D-8550-490983E40E09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7B54CD-C16F-47AE-A35F-2BB015E8DAA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6E8CE0C-83DF-411B-9F00-E4AEA9FF7891}"/>
+    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" xr2:uid="{B6E8CE0C-83DF-411B-9F00-E4AEA9FF7891}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -966,169 +967,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,6 +990,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1175,6 +1035,147 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12225,15 +12226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
+      <xdr:colOff>13608</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>163284</xdr:rowOff>
+      <xdr:rowOff>149677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>215348</xdr:colOff>
+      <xdr:colOff>174527</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>67739</xdr:rowOff>
+      <xdr:rowOff>54132</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12244,15 +12245,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="4"/>
-          <a:endCxn id="21" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-402446" y="4906409"/>
-          <a:ext cx="4748597" cy="895705"/>
+          <a:off x="203072" y="4423356"/>
+          <a:ext cx="4748597" cy="1834598"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -13541,15 +13539,18 @@
   </sheetPr>
   <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="15" width="3.7109375" style="2"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="2"/>
+    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="3.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:52" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13590,10 +13591,10 @@
       <c r="O1" s="5">
         <v>1</v>
       </c>
-      <c r="P1" s="98" t="s">
+      <c r="P1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="99"/>
+      <c r="Q1" s="142"/>
       <c r="R1" s="3">
         <v>1</v>
       </c>
@@ -13623,10 +13624,10 @@
       <c r="AB1" s="31">
         <v>1</v>
       </c>
-      <c r="AC1" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="99"/>
+      <c r="AC1" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="142"/>
       <c r="AE1" s="25">
         <v>1</v>
       </c>
@@ -13659,10 +13660,10 @@
       <c r="AP1" s="63">
         <v>1</v>
       </c>
-      <c r="AQ1" s="136" t="s">
+      <c r="AQ1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="136"/>
+      <c r="AR1" s="130"/>
       <c r="AS1" s="65">
         <v>1</v>
       </c>
@@ -13685,56 +13686,56 @@
       <c r="AZ1" s="48"/>
     </row>
     <row r="2" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="121"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="157"/>
       <c r="V2" s="22">
         <v>1</v>
       </c>
       <c r="W2" s="27">
         <v>1</v>
       </c>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="116"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="31">
         <v>1</v>
       </c>
       <c r="AK2" s="90">
         <v>1</v>
       </c>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="137"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
       <c r="AS2" s="44"/>
       <c r="AT2" s="34"/>
       <c r="AU2" s="34"/>
@@ -13782,8 +13783,8 @@
       <c r="O3" s="8">
         <v>1</v>
       </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="101"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="144"/>
       <c r="R3" s="7">
         <v>1</v>
       </c>
@@ -13817,8 +13818,8 @@
       <c r="AB3" s="20">
         <v>1</v>
       </c>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="101"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="144"/>
       <c r="AE3" s="25">
         <v>1</v>
       </c>
@@ -13855,8 +13856,8 @@
       <c r="AP3" s="64">
         <v>1</v>
       </c>
-      <c r="AQ3" s="137"/>
-      <c r="AR3" s="137"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
       <c r="AS3" s="60">
         <v>1</v>
       </c>
@@ -13879,48 +13880,48 @@
       <c r="AZ3" s="35"/>
     </row>
     <row r="4" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="111"/>
-      <c r="AG4" s="111"/>
-      <c r="AH4" s="111"/>
-      <c r="AI4" s="111"/>
-      <c r="AJ4" s="113"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
       <c r="AK4" s="44"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
       <c r="AN4" s="34"/>
       <c r="AO4" s="34"/>
       <c r="AP4" s="35"/>
-      <c r="AQ4" s="137"/>
-      <c r="AR4" s="137"/>
+      <c r="AQ4" s="131"/>
+      <c r="AR4" s="131"/>
       <c r="AS4" s="44"/>
       <c r="AT4" s="34"/>
       <c r="AU4" s="34"/>
@@ -13968,8 +13969,8 @@
       <c r="O5" s="8">
         <v>1</v>
       </c>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="144"/>
       <c r="R5" s="15">
         <v>1</v>
       </c>
@@ -14003,8 +14004,8 @@
       <c r="AB5" s="21">
         <v>1</v>
       </c>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="101"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="144"/>
       <c r="AE5" s="25">
         <v>1</v>
       </c>
@@ -14037,8 +14038,8 @@
       <c r="AP5" s="64">
         <v>1</v>
       </c>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
+      <c r="AQ5" s="131"/>
+      <c r="AR5" s="131"/>
       <c r="AS5" s="60">
         <v>1</v>
       </c>
@@ -14064,55 +14065,55 @@
     </row>
     <row r="6" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="130" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="132"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="103"/>
       <c r="V6" s="25">
         <v>1</v>
       </c>
-      <c r="W6" s="93"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="114"/>
-      <c r="AF6" s="115"/>
-      <c r="AG6" s="115"/>
-      <c r="AH6" s="115"/>
-      <c r="AI6" s="116"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="144"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="150"/>
+      <c r="AG6" s="150"/>
+      <c r="AH6" s="150"/>
+      <c r="AI6" s="151"/>
       <c r="AJ6" s="31">
         <v>1</v>
       </c>
       <c r="AK6" s="90">
         <v>1</v>
       </c>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="94"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="94"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="137"/>
-      <c r="AR6" s="137"/>
+      <c r="AL6" s="136"/>
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="139"/>
+      <c r="AQ6" s="131"/>
+      <c r="AR6" s="131"/>
       <c r="AS6" s="44"/>
       <c r="AT6" s="34"/>
       <c r="AU6" s="34"/>
@@ -14157,12 +14158,12 @@
       <c r="O7" s="8">
         <v>1</v>
       </c>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="134"/>
-      <c r="U7" s="135"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="106"/>
       <c r="V7" s="42"/>
       <c r="W7" s="21">
         <v>1</v>
@@ -14182,8 +14183,8 @@
       <c r="AB7" s="20">
         <v>1</v>
       </c>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="101"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="144"/>
       <c r="AE7" s="25">
         <v>1</v>
       </c>
@@ -14220,8 +14221,8 @@
       <c r="AP7" s="64">
         <v>1</v>
       </c>
-      <c r="AQ7" s="137"/>
-      <c r="AR7" s="137"/>
+      <c r="AQ7" s="131"/>
+      <c r="AR7" s="131"/>
       <c r="AS7" s="60">
         <v>1</v>
       </c>
@@ -14249,48 +14250,48 @@
     </row>
     <row r="8" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="133"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="135"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="106"/>
       <c r="V8" s="27">
         <v>1</v>
       </c>
-      <c r="W8" s="93"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="113"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="147"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="94"/>
       <c r="AK8" s="44"/>
       <c r="AL8" s="34"/>
       <c r="AM8" s="34"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="34"/>
       <c r="AP8" s="35"/>
-      <c r="AQ8" s="137"/>
-      <c r="AR8" s="137"/>
+      <c r="AQ8" s="131"/>
+      <c r="AR8" s="131"/>
       <c r="AS8" s="44"/>
       <c r="AT8" s="34"/>
       <c r="AU8" s="34"/>
@@ -14332,12 +14333,12 @@
       <c r="O9" s="8">
         <v>1</v>
       </c>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="135"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="106"/>
       <c r="V9" s="27">
         <v>1</v>
       </c>
@@ -14359,8 +14360,8 @@
       <c r="AB9" s="20">
         <v>1</v>
       </c>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="101"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="144"/>
       <c r="AE9" s="25">
         <v>1</v>
       </c>
@@ -14393,8 +14394,8 @@
       <c r="AP9" s="64">
         <v>1</v>
       </c>
-      <c r="AQ9" s="137"/>
-      <c r="AR9" s="137"/>
+      <c r="AQ9" s="131"/>
+      <c r="AR9" s="131"/>
       <c r="AS9" s="60">
         <v>1</v>
       </c>
@@ -14420,49 +14421,49 @@
     </row>
     <row r="10" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="115"/>
-      <c r="AH10" s="115"/>
-      <c r="AI10" s="116"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="143"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="150"/>
+      <c r="AH10" s="150"/>
+      <c r="AI10" s="151"/>
       <c r="AJ10" s="31">
         <v>1</v>
       </c>
       <c r="AK10" s="90">
         <v>1</v>
       </c>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="94"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="137"/>
-      <c r="AR10" s="137"/>
+      <c r="AL10" s="136"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="120"/>
+      <c r="AO10" s="120"/>
+      <c r="AP10" s="139"/>
+      <c r="AQ10" s="131"/>
+      <c r="AR10" s="131"/>
       <c r="AS10" s="13"/>
       <c r="AZ10" s="64">
         <v>1</v>
@@ -14497,12 +14498,12 @@
       <c r="O11" s="8">
         <v>1</v>
       </c>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="135"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="106"/>
       <c r="V11" s="27">
         <v>1</v>
       </c>
@@ -14524,8 +14525,8 @@
       <c r="AB11" s="20">
         <v>1</v>
       </c>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="101"/>
+      <c r="AC11" s="143"/>
+      <c r="AD11" s="144"/>
       <c r="AE11" s="25">
         <v>1</v>
       </c>
@@ -14562,8 +14563,8 @@
       <c r="AP11" s="64">
         <v>1</v>
       </c>
-      <c r="AQ11" s="137"/>
-      <c r="AR11" s="137"/>
+      <c r="AQ11" s="131"/>
+      <c r="AR11" s="131"/>
       <c r="AS11" s="60">
         <v>1</v>
       </c>
@@ -14591,46 +14592,46 @@
     </row>
     <row r="12" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="135"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="106"/>
       <c r="V12" s="27">
         <v>1</v>
       </c>
-      <c r="W12" s="93"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="111"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="111"/>
-      <c r="AI12" s="111"/>
-      <c r="AJ12" s="113"/>
+      <c r="W12" s="136"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="143"/>
+      <c r="AD12" s="144"/>
+      <c r="AE12" s="147"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="94"/>
       <c r="AK12" s="44"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
       <c r="AN12" s="34"/>
       <c r="AO12" s="34"/>
       <c r="AP12" s="35"/>
-      <c r="AQ12" s="137"/>
-      <c r="AR12" s="137"/>
+      <c r="AQ12" s="131"/>
+      <c r="AR12" s="131"/>
       <c r="AS12" s="44"/>
       <c r="AT12" s="34"/>
       <c r="AU12" s="34"/>
@@ -14666,12 +14667,12 @@
       <c r="O13" s="8">
         <v>1</v>
       </c>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="135"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="106"/>
       <c r="V13" s="44"/>
       <c r="W13" s="21">
         <v>1</v>
@@ -14691,8 +14692,8 @@
       <c r="AB13" s="20">
         <v>1</v>
       </c>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="101"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="144"/>
       <c r="AE13" s="25">
         <v>1</v>
       </c>
@@ -14725,8 +14726,8 @@
       <c r="AP13" s="64">
         <v>1</v>
       </c>
-      <c r="AQ13" s="137"/>
-      <c r="AR13" s="137"/>
+      <c r="AQ13" s="131"/>
+      <c r="AR13" s="131"/>
       <c r="AS13" s="60">
         <v>1</v>
       </c>
@@ -14752,47 +14753,47 @@
     </row>
     <row r="14" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="135"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="106"/>
       <c r="V14" s="44"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="111"/>
-      <c r="AH14" s="111"/>
-      <c r="AI14" s="112"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="143"/>
+      <c r="AD14" s="144"/>
+      <c r="AE14" s="147"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="148"/>
       <c r="AJ14" s="31">
         <v>1</v>
       </c>
       <c r="AK14" s="90">
         <v>1</v>
       </c>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="137"/>
-      <c r="AR14" s="137"/>
+      <c r="AL14" s="136"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="139"/>
+      <c r="AQ14" s="131"/>
+      <c r="AR14" s="131"/>
       <c r="AS14" s="44"/>
       <c r="AT14" s="34"/>
       <c r="AU14" s="34"/>
@@ -14830,14 +14831,14 @@
         <v>1</v>
       </c>
       <c r="O15" s="19"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="118"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="153"/>
       <c r="X15" s="29">
         <v>1</v>
       </c>
@@ -14851,8 +14852,8 @@
         <v>1</v>
       </c>
       <c r="AB15" s="41"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="103"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="146"/>
       <c r="AE15" s="45"/>
       <c r="AF15" s="46">
         <v>1</v>
@@ -14885,8 +14886,8 @@
         <v>1</v>
       </c>
       <c r="AP15" s="41"/>
-      <c r="AQ15" s="138"/>
-      <c r="AR15" s="138"/>
+      <c r="AQ15" s="132"/>
+      <c r="AR15" s="132"/>
       <c r="AS15" s="61">
         <v>1</v>
       </c>
@@ -14913,82 +14914,82 @@
       </c>
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="140"/>
+      <c r="AJ16" s="140"/>
       <c r="AK16" s="55"/>
       <c r="AL16" s="55"/>
       <c r="AT16" s="13"/>
       <c r="AZ16" s="14"/>
     </row>
     <row r="17" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="109"/>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="109"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="109"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
+      <c r="S17" s="140"/>
+      <c r="T17" s="140"/>
+      <c r="U17" s="140"/>
+      <c r="V17" s="140"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="140"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="140"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="140"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="140"/>
+      <c r="AJ17" s="140"/>
       <c r="AK17" s="55"/>
       <c r="AL17" s="55"/>
       <c r="AT17" s="60">
@@ -15012,40 +15013,40 @@
       <c r="AZ17" s="14"/>
     </row>
     <row r="18" spans="3:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="109"/>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="109"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="140"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="140"/>
+      <c r="AI18" s="140"/>
+      <c r="AJ18" s="140"/>
       <c r="AK18" s="55"/>
       <c r="AL18" s="55"/>
       <c r="AT18" s="13"/>
@@ -15098,7 +15099,7 @@
         <v>1</v>
       </c>
       <c r="AP19" s="53"/>
-      <c r="AQ19" s="139" t="s">
+      <c r="AQ19" s="133" t="s">
         <v>6</v>
       </c>
       <c r="AR19" s="125"/>
@@ -15128,36 +15129,36 @@
     <row r="20" spans="3:52" x14ac:dyDescent="0.25">
       <c r="X20" s="126"/>
       <c r="Y20" s="127"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="97"/>
+      <c r="Z20" s="136"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="121"/>
       <c r="AH20" s="51">
         <v>1</v>
       </c>
       <c r="AJ20" s="70">
         <v>1</v>
       </c>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="97"/>
+      <c r="AK20" s="136"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="120"/>
+      <c r="AO20" s="121"/>
       <c r="AP20" s="34"/>
-      <c r="AQ20" s="140"/>
+      <c r="AQ20" s="134"/>
       <c r="AR20" s="127"/>
-      <c r="AS20" s="146"/>
-      <c r="AT20" s="146"/>
-      <c r="AU20" s="146"/>
-      <c r="AV20" s="146"/>
-      <c r="AW20" s="146"/>
-      <c r="AX20" s="146"/>
-      <c r="AY20" s="146"/>
-      <c r="AZ20" s="147"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="118"/>
+      <c r="AX20" s="118"/>
+      <c r="AY20" s="118"/>
+      <c r="AZ20" s="119"/>
     </row>
     <row r="21" spans="3:52" x14ac:dyDescent="0.25">
       <c r="X21" s="126"/>
@@ -15210,7 +15211,7 @@
       <c r="AP21" s="85">
         <v>1</v>
       </c>
-      <c r="AQ21" s="140"/>
+      <c r="AQ21" s="134"/>
       <c r="AR21" s="127"/>
       <c r="AS21" s="87">
         <v>1</v>
@@ -15247,22 +15248,22 @@
       <c r="AF22" s="38"/>
       <c r="AG22" s="38"/>
       <c r="AH22" s="39"/>
-      <c r="AJ22" s="142"/>
-      <c r="AK22" s="143"/>
-      <c r="AL22" s="143"/>
-      <c r="AM22" s="143"/>
-      <c r="AN22" s="143"/>
-      <c r="AO22" s="143"/>
-      <c r="AP22" s="143"/>
-      <c r="AQ22" s="140"/>
+      <c r="AJ22" s="137"/>
+      <c r="AK22" s="138"/>
+      <c r="AL22" s="138"/>
+      <c r="AM22" s="138"/>
+      <c r="AN22" s="138"/>
+      <c r="AO22" s="138"/>
+      <c r="AP22" s="138"/>
+      <c r="AQ22" s="134"/>
       <c r="AR22" s="127"/>
-      <c r="AS22" s="94"/>
-      <c r="AT22" s="94"/>
-      <c r="AU22" s="94"/>
-      <c r="AV22" s="94"/>
-      <c r="AW22" s="94"/>
-      <c r="AX22" s="94"/>
-      <c r="AY22" s="97"/>
+      <c r="AS22" s="120"/>
+      <c r="AT22" s="120"/>
+      <c r="AU22" s="120"/>
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
+      <c r="AX22" s="120"/>
+      <c r="AY22" s="121"/>
       <c r="AZ22" s="71">
         <v>1</v>
       </c>
@@ -15314,7 +15315,7 @@
       <c r="AP23" s="85">
         <v>1</v>
       </c>
-      <c r="AQ23" s="140"/>
+      <c r="AQ23" s="134"/>
       <c r="AR23" s="127"/>
       <c r="AS23" s="87">
         <v>1</v>
@@ -15358,22 +15359,22 @@
       <c r="AJ24" s="70">
         <v>1</v>
       </c>
-      <c r="AK24" s="144"/>
-      <c r="AL24" s="145"/>
-      <c r="AM24" s="145"/>
-      <c r="AN24" s="145"/>
-      <c r="AO24" s="145"/>
-      <c r="AP24" s="145"/>
-      <c r="AQ24" s="140"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="134"/>
       <c r="AR24" s="127"/>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
-      <c r="AX24" s="111"/>
-      <c r="AY24" s="111"/>
-      <c r="AZ24" s="113"/>
+      <c r="AS24" s="93"/>
+      <c r="AT24" s="93"/>
+      <c r="AU24" s="93"/>
+      <c r="AV24" s="93"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="93"/>
+      <c r="AY24" s="93"/>
+      <c r="AZ24" s="94"/>
     </row>
     <row r="25" spans="3:52" x14ac:dyDescent="0.25">
       <c r="X25" s="126"/>
@@ -15426,7 +15427,7 @@
       <c r="AP25" s="85">
         <v>1</v>
       </c>
-      <c r="AQ25" s="140"/>
+      <c r="AQ25" s="134"/>
       <c r="AR25" s="127"/>
       <c r="AS25" s="87">
         <v>1</v>
@@ -15463,14 +15464,14 @@
       <c r="AF26" s="38"/>
       <c r="AG26" s="40"/>
       <c r="AH26" s="83"/>
-      <c r="AJ26" s="142"/>
-      <c r="AK26" s="143"/>
-      <c r="AL26" s="143"/>
-      <c r="AM26" s="143"/>
-      <c r="AN26" s="143"/>
-      <c r="AO26" s="143"/>
-      <c r="AP26" s="143"/>
-      <c r="AQ26" s="140"/>
+      <c r="AJ26" s="137"/>
+      <c r="AK26" s="138"/>
+      <c r="AL26" s="138"/>
+      <c r="AM26" s="138"/>
+      <c r="AN26" s="138"/>
+      <c r="AO26" s="138"/>
+      <c r="AP26" s="138"/>
+      <c r="AQ26" s="134"/>
       <c r="AR26" s="127"/>
       <c r="AS26" s="122"/>
       <c r="AT26" s="122"/>
@@ -15530,7 +15531,7 @@
       <c r="AP27" s="85">
         <v>1</v>
       </c>
-      <c r="AQ27" s="140"/>
+      <c r="AQ27" s="134"/>
       <c r="AR27" s="127"/>
       <c r="AS27" s="87">
         <v>1</v>
@@ -15574,22 +15575,22 @@
       <c r="AJ28" s="70">
         <v>1</v>
       </c>
-      <c r="AK28" s="144"/>
-      <c r="AL28" s="145"/>
-      <c r="AM28" s="145"/>
-      <c r="AN28" s="145"/>
-      <c r="AO28" s="145"/>
-      <c r="AP28" s="145"/>
-      <c r="AQ28" s="140"/>
+      <c r="AK28" s="116"/>
+      <c r="AL28" s="117"/>
+      <c r="AM28" s="117"/>
+      <c r="AN28" s="117"/>
+      <c r="AO28" s="117"/>
+      <c r="AP28" s="117"/>
+      <c r="AQ28" s="134"/>
       <c r="AR28" s="127"/>
-      <c r="AS28" s="111"/>
-      <c r="AT28" s="111"/>
-      <c r="AU28" s="111"/>
-      <c r="AV28" s="111"/>
-      <c r="AW28" s="111"/>
-      <c r="AX28" s="111"/>
-      <c r="AY28" s="111"/>
-      <c r="AZ28" s="113"/>
+      <c r="AS28" s="93"/>
+      <c r="AT28" s="93"/>
+      <c r="AU28" s="93"/>
+      <c r="AV28" s="93"/>
+      <c r="AW28" s="93"/>
+      <c r="AX28" s="93"/>
+      <c r="AY28" s="93"/>
+      <c r="AZ28" s="94"/>
     </row>
     <row r="29" spans="3:52" x14ac:dyDescent="0.25">
       <c r="X29" s="126"/>
@@ -15642,7 +15643,7 @@
       <c r="AP29" s="85">
         <v>1</v>
       </c>
-      <c r="AQ29" s="140"/>
+      <c r="AQ29" s="134"/>
       <c r="AR29" s="127"/>
       <c r="AS29" s="87">
         <v>1</v>
@@ -15679,14 +15680,14 @@
       <c r="AF30" s="38"/>
       <c r="AG30" s="40"/>
       <c r="AH30" s="83"/>
-      <c r="AJ30" s="142"/>
-      <c r="AK30" s="143"/>
-      <c r="AL30" s="143"/>
-      <c r="AM30" s="143"/>
-      <c r="AN30" s="143"/>
-      <c r="AO30" s="143"/>
-      <c r="AP30" s="143"/>
-      <c r="AQ30" s="140"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="138"/>
+      <c r="AL30" s="138"/>
+      <c r="AM30" s="138"/>
+      <c r="AN30" s="138"/>
+      <c r="AO30" s="138"/>
+      <c r="AP30" s="138"/>
+      <c r="AQ30" s="134"/>
       <c r="AR30" s="127"/>
       <c r="AS30" s="122"/>
       <c r="AT30" s="122"/>
@@ -15738,7 +15739,7 @@
       <c r="AP31" s="85">
         <v>1</v>
       </c>
-      <c r="AQ31" s="140"/>
+      <c r="AQ31" s="134"/>
       <c r="AR31" s="127"/>
       <c r="AS31" s="87">
         <v>1</v>
@@ -15782,22 +15783,22 @@
       <c r="AJ32" s="70">
         <v>1</v>
       </c>
-      <c r="AK32" s="144"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="145"/>
-      <c r="AN32" s="145"/>
-      <c r="AO32" s="145"/>
-      <c r="AP32" s="145"/>
-      <c r="AQ32" s="140"/>
+      <c r="AK32" s="116"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="117"/>
+      <c r="AO32" s="117"/>
+      <c r="AP32" s="117"/>
+      <c r="AQ32" s="134"/>
       <c r="AR32" s="127"/>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="111"/>
-      <c r="AU32" s="111"/>
-      <c r="AV32" s="111"/>
-      <c r="AW32" s="111"/>
-      <c r="AX32" s="111"/>
-      <c r="AY32" s="111"/>
-      <c r="AZ32" s="113"/>
+      <c r="AS32" s="93"/>
+      <c r="AT32" s="93"/>
+      <c r="AU32" s="93"/>
+      <c r="AV32" s="93"/>
+      <c r="AW32" s="93"/>
+      <c r="AX32" s="93"/>
+      <c r="AY32" s="93"/>
+      <c r="AZ32" s="94"/>
     </row>
     <row r="33" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="92" t="s">
@@ -15806,6 +15807,20 @@
       <c r="B33" s="92">
         <v>5</v>
       </c>
+      <c r="C33" s="2">
+        <v>78</v>
+      </c>
+      <c r="D33" s="2">
+        <f>C33/B33</f>
+        <v>15.6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <f>C33/E33</f>
+        <v>15.6</v>
+      </c>
       <c r="AJ33" s="72">
         <v>1</v>
       </c>
@@ -15827,7 +15842,7 @@
       <c r="AP33" s="86">
         <v>1</v>
       </c>
-      <c r="AQ33" s="141"/>
+      <c r="AQ33" s="135"/>
       <c r="AR33" s="129"/>
       <c r="AS33" s="88">
         <v>1</v>
@@ -15841,76 +15856,105 @@
       <c r="AV33" s="86">
         <v>1</v>
       </c>
-      <c r="AW33" s="130" t="s">
+      <c r="AW33" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="AX33" s="131"/>
-      <c r="AY33" s="131"/>
-      <c r="AZ33" s="131"/>
-      <c r="BA33" s="131"/>
-      <c r="BB33" s="131"/>
-      <c r="BC33" s="131"/>
-      <c r="BD33" s="132"/>
+      <c r="AX33" s="102"/>
+      <c r="AY33" s="102"/>
+      <c r="AZ33" s="102"/>
+      <c r="BA33" s="102"/>
+      <c r="BB33" s="102"/>
+      <c r="BC33" s="102"/>
+      <c r="BD33" s="103"/>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="92">
-        <v>4</v>
-      </c>
-      <c r="AJ34" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
+        <f>55+55+4</f>
+        <v>114</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:D39" si="0">C34/B34</f>
+        <v>14.25</v>
+      </c>
+      <c r="E34" s="2">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2">
+        <f>C34/E34</f>
+        <v>14.25</v>
+      </c>
+      <c r="AJ34" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="AK34" s="158"/>
-      <c r="AL34" s="158"/>
-      <c r="AM34" s="158"/>
-      <c r="AN34" s="158"/>
-      <c r="AO34" s="158"/>
-      <c r="AP34" s="158"/>
-      <c r="AQ34" s="158"/>
-      <c r="AR34" s="158"/>
-      <c r="AS34" s="158"/>
-      <c r="AT34" s="158"/>
-      <c r="AU34" s="158"/>
-      <c r="AV34" s="159"/>
-      <c r="AW34" s="133"/>
-      <c r="AX34" s="134"/>
-      <c r="AY34" s="134"/>
-      <c r="AZ34" s="134"/>
-      <c r="BA34" s="134"/>
-      <c r="BB34" s="134"/>
-      <c r="BC34" s="134"/>
-      <c r="BD34" s="135"/>
+      <c r="AK34" s="111"/>
+      <c r="AL34" s="111"/>
+      <c r="AM34" s="111"/>
+      <c r="AN34" s="111"/>
+      <c r="AO34" s="111"/>
+      <c r="AP34" s="111"/>
+      <c r="AQ34" s="111"/>
+      <c r="AR34" s="111"/>
+      <c r="AS34" s="111"/>
+      <c r="AT34" s="111"/>
+      <c r="AU34" s="111"/>
+      <c r="AV34" s="112"/>
+      <c r="AW34" s="104"/>
+      <c r="AX34" s="105"/>
+      <c r="AY34" s="105"/>
+      <c r="AZ34" s="105"/>
+      <c r="BA34" s="105"/>
+      <c r="BB34" s="105"/>
+      <c r="BC34" s="105"/>
+      <c r="BD34" s="106"/>
     </row>
     <row r="35" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="92">
-        <v>7</v>
-      </c>
-      <c r="AJ35" s="160"/>
-      <c r="AK35" s="161"/>
-      <c r="AL35" s="161"/>
-      <c r="AM35" s="161"/>
-      <c r="AN35" s="161"/>
-      <c r="AO35" s="161"/>
-      <c r="AP35" s="161"/>
-      <c r="AQ35" s="161"/>
-      <c r="AR35" s="161"/>
-      <c r="AS35" s="161"/>
-      <c r="AT35" s="161"/>
-      <c r="AU35" s="161"/>
-      <c r="AV35" s="162"/>
-      <c r="AW35" s="154"/>
-      <c r="AX35" s="155"/>
-      <c r="AY35" s="155"/>
-      <c r="AZ35" s="155"/>
-      <c r="BA35" s="155"/>
-      <c r="BB35" s="155"/>
-      <c r="BC35" s="155"/>
-      <c r="BD35" s="156"/>
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <f>C35/E35</f>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="AJ35" s="113"/>
+      <c r="AK35" s="114"/>
+      <c r="AL35" s="114"/>
+      <c r="AM35" s="114"/>
+      <c r="AN35" s="114"/>
+      <c r="AO35" s="114"/>
+      <c r="AP35" s="114"/>
+      <c r="AQ35" s="114"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
+      <c r="AT35" s="114"/>
+      <c r="AU35" s="114"/>
+      <c r="AV35" s="115"/>
+      <c r="AW35" s="107"/>
+      <c r="AX35" s="108"/>
+      <c r="AY35" s="108"/>
+      <c r="AZ35" s="108"/>
+      <c r="BA35" s="108"/>
+      <c r="BB35" s="108"/>
+      <c r="BC35" s="108"/>
+      <c r="BD35" s="109"/>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="s">
@@ -15919,18 +15963,34 @@
       <c r="B36" s="92">
         <v>9</v>
       </c>
+      <c r="C36" s="2">
+        <f>39+67</f>
+        <v>106</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="E36" s="2">
+        <f>B36</f>
+        <v>9</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" ref="F36:F38" si="1">C36/E36</f>
+        <v>11.777777777777779</v>
+      </c>
       <c r="AJ36" s="74">
         <v>1</v>
       </c>
-      <c r="AK36" s="148"/>
+      <c r="AK36" s="95"/>
       <c r="AL36" s="75">
         <v>1</v>
       </c>
-      <c r="AM36" s="151"/>
+      <c r="AM36" s="98"/>
       <c r="AN36" s="74">
         <v>1</v>
       </c>
-      <c r="AO36" s="148"/>
+      <c r="AO36" s="95"/>
       <c r="AP36" s="75">
         <v>1</v>
       </c>
@@ -15961,18 +16021,33 @@
       <c r="B37" s="92">
         <v>6</v>
       </c>
+      <c r="C37" s="2">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="E37" s="2">
+        <f>B37</f>
+        <v>6</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
       <c r="AJ37" s="76">
         <v>1</v>
       </c>
-      <c r="AK37" s="149"/>
+      <c r="AK37" s="96"/>
       <c r="AL37" s="58">
         <v>1</v>
       </c>
-      <c r="AM37" s="152"/>
+      <c r="AM37" s="99"/>
       <c r="AN37" s="76">
         <v>1</v>
       </c>
-      <c r="AO37" s="149"/>
+      <c r="AO37" s="96"/>
       <c r="AP37" s="58">
         <v>1</v>
       </c>
@@ -16010,18 +16085,34 @@
       <c r="B38" s="92">
         <v>6</v>
       </c>
+      <c r="C38" s="2">
+        <f>79+15</f>
+        <v>94</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="E38" s="2">
+        <f>B38</f>
+        <v>6</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>15.666666666666666</v>
+      </c>
       <c r="AJ38" s="76">
         <v>1</v>
       </c>
-      <c r="AK38" s="149"/>
+      <c r="AK38" s="96"/>
       <c r="AL38" s="58">
         <v>1</v>
       </c>
-      <c r="AM38" s="152"/>
+      <c r="AM38" s="99"/>
       <c r="AN38" s="76">
         <v>1</v>
       </c>
-      <c r="AO38" s="149"/>
+      <c r="AO38" s="96"/>
       <c r="AP38" s="58">
         <v>1</v>
       </c>
@@ -16062,16 +16153,28 @@
         <f>SUM(B33:B38)</f>
         <v>37</v>
       </c>
+      <c r="C39" s="92">
+        <f>SUM(C33:C38)</f>
+        <v>549</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>14.837837837837839</v>
+      </c>
+      <c r="E39" s="92">
+        <f>SUM(E33:E38)</f>
+        <v>37</v>
+      </c>
       <c r="AJ39" s="79"/>
-      <c r="AK39" s="150"/>
+      <c r="AK39" s="97"/>
       <c r="AL39" s="78">
         <v>1</v>
       </c>
-      <c r="AM39" s="153"/>
+      <c r="AM39" s="100"/>
       <c r="AN39" s="76">
         <v>1</v>
       </c>
-      <c r="AO39" s="149"/>
+      <c r="AO39" s="96"/>
       <c r="AP39" s="58">
         <v>1</v>
       </c>
@@ -16108,7 +16211,7 @@
       <c r="AN40" s="76">
         <v>1</v>
       </c>
-      <c r="AO40" s="149"/>
+      <c r="AO40" s="96"/>
       <c r="AP40" s="58">
         <v>1</v>
       </c>
@@ -16145,7 +16248,7 @@
       <c r="AN41" s="76">
         <v>1</v>
       </c>
-      <c r="AO41" s="149"/>
+      <c r="AO41" s="96"/>
       <c r="AP41" s="58">
         <v>1</v>
       </c>
@@ -16182,7 +16285,7 @@
       <c r="AN42" s="76">
         <v>1</v>
       </c>
-      <c r="AO42" s="149"/>
+      <c r="AO42" s="96"/>
       <c r="AP42" s="58">
         <v>1</v>
       </c>
@@ -16219,7 +16322,7 @@
       <c r="AN43" s="76">
         <v>1</v>
       </c>
-      <c r="AO43" s="149"/>
+      <c r="AO43" s="96"/>
       <c r="AP43" s="58">
         <v>1</v>
       </c>
@@ -16280,18 +16383,33 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="AS32:AZ32"/>
-    <mergeCell ref="AK36:AK39"/>
-    <mergeCell ref="AM36:AM39"/>
-    <mergeCell ref="AO36:AO43"/>
-    <mergeCell ref="AW33:BD35"/>
-    <mergeCell ref="AJ34:AV35"/>
-    <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="AS20:AZ20"/>
-    <mergeCell ref="AS22:AY22"/>
-    <mergeCell ref="AS24:AZ24"/>
-    <mergeCell ref="AS26:AY26"/>
-    <mergeCell ref="AS28:AZ28"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="W6:AB6"/>
+    <mergeCell ref="P1:Q15"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="E8:O8"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="C16:AJ18"/>
+    <mergeCell ref="AC1:AD15"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AE8:AJ8"/>
+    <mergeCell ref="AE12:AJ12"/>
+    <mergeCell ref="AE4:AJ4"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="W12:AB12"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R4:V4"/>
     <mergeCell ref="AS30:AY30"/>
     <mergeCell ref="X19:Y32"/>
     <mergeCell ref="R6:U15"/>
@@ -16308,36 +16426,785 @@
     <mergeCell ref="AL10:AP10"/>
     <mergeCell ref="AL14:AP14"/>
     <mergeCell ref="AJ30:AP30"/>
-    <mergeCell ref="C16:AJ18"/>
-    <mergeCell ref="AC1:AD15"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="AE12:AJ12"/>
-    <mergeCell ref="AE4:AJ4"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="W8:AB8"/>
-    <mergeCell ref="W12:AB12"/>
-    <mergeCell ref="W14:AB14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W6:AB6"/>
-    <mergeCell ref="P1:Q15"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="E8:O8"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="AS20:AZ20"/>
+    <mergeCell ref="AS22:AY22"/>
+    <mergeCell ref="AS24:AZ24"/>
+    <mergeCell ref="AS26:AY26"/>
+    <mergeCell ref="AS28:AZ28"/>
+    <mergeCell ref="AS32:AZ32"/>
+    <mergeCell ref="AK36:AK39"/>
+    <mergeCell ref="AM36:AM39"/>
+    <mergeCell ref="AO36:AO43"/>
+    <mergeCell ref="AW33:BD35"/>
+    <mergeCell ref="AJ34:AV35"/>
+    <mergeCell ref="AK32:AP32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7BC0DA-5DE2-42CD-A2EB-7DEFDE6EEFB7}">
+  <dimension ref="A1:B94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B94" sqref="B1:B94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>